--- a/non_MORDM_scripts/BEV_fleet.xlsx
+++ b/non_MORDM_scripts/BEV_fleet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/maldan_ug_kth_se/Documents/box_files/ITRL/ITRL Project documents/ITRL Projects/F8973 - MUST/Working documents/Phase 1/AP2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aengholm\MUST code repository\climate_scenarios_EMA\non_MORDM_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6FFBB1-BD49-4A22-B1B6-B60A5635C137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data export" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,21 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -50,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -104,7 +116,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="INTRO"/>
@@ -163,217 +175,12 @@
             <v>2050</v>
           </cell>
         </row>
-        <row r="58">
-          <cell r="G58">
-            <v>0</v>
-          </cell>
-          <cell r="H58">
-            <v>2</v>
-          </cell>
-          <cell r="I58">
-            <v>3</v>
-          </cell>
-          <cell r="J58">
-            <v>6</v>
-          </cell>
-          <cell r="K58">
-            <v>9</v>
-          </cell>
-          <cell r="L58">
-            <v>12</v>
-          </cell>
-          <cell r="M58">
-            <v>65</v>
-          </cell>
-          <cell r="N58">
-            <v>92</v>
-          </cell>
-          <cell r="O58">
-            <v>95</v>
-          </cell>
-          <cell r="P58">
-            <v>95</v>
-          </cell>
-          <cell r="Q58">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="G62">
-            <v>9</v>
-          </cell>
-          <cell r="H62">
-            <v>20</v>
-          </cell>
-          <cell r="I62">
-            <v>35</v>
-          </cell>
-          <cell r="J62">
-            <v>50</v>
-          </cell>
-          <cell r="K62">
-            <v>65</v>
-          </cell>
-          <cell r="L62">
-            <v>80</v>
-          </cell>
-          <cell r="M62">
-            <v>100</v>
-          </cell>
-          <cell r="N62">
-            <v>100</v>
-          </cell>
-          <cell r="O62">
-            <v>100</v>
-          </cell>
-          <cell r="P62">
-            <v>100</v>
-          </cell>
-          <cell r="Q62">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="G72">
-            <v>5</v>
-          </cell>
-          <cell r="H72">
-            <v>7</v>
-          </cell>
-          <cell r="I72">
-            <v>16</v>
-          </cell>
-          <cell r="J72">
-            <v>22</v>
-          </cell>
-          <cell r="K72">
-            <v>35</v>
-          </cell>
-          <cell r="L72">
-            <v>50</v>
-          </cell>
-          <cell r="M72">
-            <v>80</v>
-          </cell>
-          <cell r="N72">
-            <v>100</v>
-          </cell>
-          <cell r="O72">
-            <v>100</v>
-          </cell>
-          <cell r="P72">
-            <v>100</v>
-          </cell>
-          <cell r="Q72">
-            <v>100</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="32">
           <cell r="H32">
             <v>3.2583041765097422</v>
-          </cell>
-          <cell r="I32">
-            <v>5.9712848347809011</v>
-          </cell>
-          <cell r="J32">
-            <v>9.583932801782554</v>
-          </cell>
-          <cell r="K32">
-            <v>14.036410614282998</v>
-          </cell>
-          <cell r="L32">
-            <v>19.064740299045322</v>
-          </cell>
-          <cell r="M32">
-            <v>24.618966923540707</v>
-          </cell>
-          <cell r="N32">
-            <v>51.535843238841082</v>
-          </cell>
-          <cell r="O32">
-            <v>74.782013352482167</v>
-          </cell>
-          <cell r="P32">
-            <v>89.673173092036478</v>
-          </cell>
-          <cell r="Q32">
-            <v>95.954657111488515</v>
-          </cell>
-          <cell r="R32">
-            <v>98.059563070215006</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="H72">
-            <v>0.40618757281243667</v>
-          </cell>
-          <cell r="I72">
-            <v>0.58807743640584176</v>
-          </cell>
-          <cell r="J72">
-            <v>1.0224296852122943</v>
-          </cell>
-          <cell r="K72">
-            <v>1.6364317135980997</v>
-          </cell>
-          <cell r="L72">
-            <v>2.6508909365969928</v>
-          </cell>
-          <cell r="M72">
-            <v>4.1671740371214767</v>
-          </cell>
-          <cell r="N72">
-            <v>16.361339536801609</v>
-          </cell>
-          <cell r="O72">
-            <v>38.628160775873695</v>
-          </cell>
-          <cell r="P72">
-            <v>64.755508383793725</v>
-          </cell>
-          <cell r="Q72">
-            <v>83.955026835360087</v>
-          </cell>
-          <cell r="R72">
-            <v>94.380002875347529</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="H119">
-            <v>2.4987751181869181E-3</v>
-          </cell>
-          <cell r="I119">
-            <v>9.3149377350251694E-2</v>
-          </cell>
-          <cell r="J119">
-            <v>0.20616447657003426</v>
-          </cell>
-          <cell r="K119">
-            <v>0.44457700799123101</v>
-          </cell>
-          <cell r="L119">
-            <v>0.79826946811525334</v>
-          </cell>
-          <cell r="M119">
-            <v>1.2667400037875267</v>
-          </cell>
-          <cell r="N119">
-            <v>10.466221390480088</v>
-          </cell>
-          <cell r="O119">
-            <v>29.72873013108579</v>
-          </cell>
-          <cell r="P119">
-            <v>52.794378271090117</v>
-          </cell>
-          <cell r="Q119">
-            <v>70.148732608422463</v>
-          </cell>
-          <cell r="R119">
-            <v>79.698950461918969</v>
           </cell>
         </row>
       </sheetData>
@@ -657,11 +464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,47 +527,36 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <f>'[1]Scenario Data INPUT'!G62</f>
         <v>9</v>
       </c>
       <c r="C2" s="1">
-        <f>'[1]Scenario Data INPUT'!H62</f>
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <f>'[1]Scenario Data INPUT'!I62</f>
         <v>35</v>
       </c>
       <c r="E2" s="1">
-        <f>'[1]Scenario Data INPUT'!J62</f>
         <v>50</v>
       </c>
       <c r="F2" s="1">
-        <f>'[1]Scenario Data INPUT'!K62</f>
         <v>65</v>
       </c>
       <c r="G2" s="1">
-        <f>'[1]Scenario Data INPUT'!L62</f>
         <v>80</v>
       </c>
       <c r="H2" s="1">
-        <f>'[1]Scenario Data INPUT'!M62</f>
         <v>100</v>
       </c>
       <c r="I2" s="1">
-        <f>'[1]Scenario Data INPUT'!N62</f>
         <v>100</v>
       </c>
       <c r="J2" s="1">
-        <f>'[1]Scenario Data INPUT'!O62</f>
         <v>100</v>
       </c>
       <c r="K2" s="1">
-        <f>'[1]Scenario Data INPUT'!P62</f>
         <v>100</v>
       </c>
       <c r="L2" s="1">
-        <f>'[1]Scenario Data INPUT'!Q62</f>
         <v>100</v>
       </c>
     </row>
@@ -769,47 +565,36 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>'[1]Scenario Data INPUT'!G72</f>
         <v>5</v>
       </c>
       <c r="C3">
-        <f>'[1]Scenario Data INPUT'!H72</f>
         <v>7</v>
       </c>
       <c r="D3">
-        <f>'[1]Scenario Data INPUT'!I72</f>
         <v>16</v>
       </c>
       <c r="E3">
-        <f>'[1]Scenario Data INPUT'!J72</f>
         <v>22</v>
       </c>
       <c r="F3">
-        <f>'[1]Scenario Data INPUT'!K72</f>
         <v>35</v>
       </c>
       <c r="G3">
-        <f>'[1]Scenario Data INPUT'!L72</f>
         <v>50</v>
       </c>
       <c r="H3">
-        <f>'[1]Scenario Data INPUT'!M72</f>
         <v>80</v>
       </c>
       <c r="I3">
-        <f>'[1]Scenario Data INPUT'!N72</f>
         <v>100</v>
       </c>
       <c r="J3">
-        <f>'[1]Scenario Data INPUT'!O72</f>
         <v>100</v>
       </c>
       <c r="K3">
-        <f>'[1]Scenario Data INPUT'!P72</f>
         <v>100</v>
       </c>
       <c r="L3">
-        <f>'[1]Scenario Data INPUT'!Q72</f>
         <v>100</v>
       </c>
     </row>
@@ -818,47 +603,36 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <f>'[1]Scenario Data INPUT'!G58</f>
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>'[1]Scenario Data INPUT'!H58</f>
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <f>'[1]Scenario Data INPUT'!I58</f>
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <f>'[1]Scenario Data INPUT'!J58</f>
         <v>6</v>
       </c>
       <c r="F4" s="1">
-        <f>'[1]Scenario Data INPUT'!K58</f>
         <v>9</v>
       </c>
       <c r="G4" s="1">
-        <f>'[1]Scenario Data INPUT'!L58</f>
         <v>12</v>
       </c>
       <c r="H4" s="1">
-        <f>'[1]Scenario Data INPUT'!M58</f>
         <v>65</v>
       </c>
       <c r="I4" s="1">
-        <f>'[1]Scenario Data INPUT'!N58</f>
         <v>92</v>
       </c>
       <c r="J4" s="1">
-        <f>'[1]Scenario Data INPUT'!O58</f>
         <v>95</v>
       </c>
       <c r="K4" s="1">
-        <f>'[1]Scenario Data INPUT'!P58</f>
         <v>95</v>
       </c>
       <c r="L4" s="1">
-        <f>'[1]Scenario Data INPUT'!Q58</f>
         <v>95</v>
       </c>
     </row>
@@ -867,47 +641,36 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>'[1]Scenario Data RESULT'!H32</f>
         <v>3.2583041765097422</v>
       </c>
       <c r="C5">
-        <f>'[1]Scenario Data RESULT'!I32</f>
         <v>5.9712848347809011</v>
       </c>
       <c r="D5">
-        <f>'[1]Scenario Data RESULT'!J32</f>
         <v>9.583932801782554</v>
       </c>
       <c r="E5">
-        <f>'[1]Scenario Data RESULT'!K32</f>
         <v>14.036410614282998</v>
       </c>
       <c r="F5">
-        <f>'[1]Scenario Data RESULT'!L32</f>
         <v>19.064740299045322</v>
       </c>
       <c r="G5">
-        <f>'[1]Scenario Data RESULT'!M32</f>
         <v>24.618966923540707</v>
       </c>
       <c r="H5">
-        <f>'[1]Scenario Data RESULT'!N32</f>
         <v>51.535843238841082</v>
       </c>
       <c r="I5">
-        <f>'[1]Scenario Data RESULT'!O32</f>
         <v>74.782013352482167</v>
       </c>
       <c r="J5">
-        <f>'[1]Scenario Data RESULT'!P32</f>
         <v>89.673173092036478</v>
       </c>
       <c r="K5">
-        <f>'[1]Scenario Data RESULT'!Q32</f>
         <v>95.954657111488515</v>
       </c>
       <c r="L5">
-        <f>'[1]Scenario Data RESULT'!R32</f>
         <v>98.059563070215006</v>
       </c>
     </row>
@@ -916,47 +679,36 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>'[1]Scenario Data RESULT'!H72</f>
         <v>0.40618757281243667</v>
       </c>
       <c r="C6">
-        <f>'[1]Scenario Data RESULT'!I72</f>
         <v>0.58807743640584176</v>
       </c>
       <c r="D6">
-        <f>'[1]Scenario Data RESULT'!J72</f>
         <v>1.0224296852122943</v>
       </c>
       <c r="E6">
-        <f>'[1]Scenario Data RESULT'!K72</f>
         <v>1.6364317135980997</v>
       </c>
       <c r="F6">
-        <f>'[1]Scenario Data RESULT'!L72</f>
         <v>2.6508909365969928</v>
       </c>
       <c r="G6">
-        <f>'[1]Scenario Data RESULT'!M72</f>
         <v>4.1671740371214767</v>
       </c>
       <c r="H6">
-        <f>'[1]Scenario Data RESULT'!N72</f>
         <v>16.361339536801609</v>
       </c>
       <c r="I6">
-        <f>'[1]Scenario Data RESULT'!O72</f>
         <v>38.628160775873695</v>
       </c>
       <c r="J6">
-        <f>'[1]Scenario Data RESULT'!P72</f>
         <v>64.755508383793725</v>
       </c>
       <c r="K6">
-        <f>'[1]Scenario Data RESULT'!Q72</f>
         <v>83.955026835360087</v>
       </c>
       <c r="L6">
-        <f>'[1]Scenario Data RESULT'!R72</f>
         <v>94.380002875347529</v>
       </c>
     </row>
@@ -965,47 +717,36 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>'[1]Scenario Data RESULT'!H119</f>
         <v>2.4987751181869181E-3</v>
       </c>
       <c r="C7">
-        <f>'[1]Scenario Data RESULT'!I119</f>
         <v>9.3149377350251694E-2</v>
       </c>
       <c r="D7">
-        <f>'[1]Scenario Data RESULT'!J119</f>
         <v>0.20616447657003426</v>
       </c>
       <c r="E7">
-        <f>'[1]Scenario Data RESULT'!K119</f>
         <v>0.44457700799123101</v>
       </c>
       <c r="F7">
-        <f>'[1]Scenario Data RESULT'!L119</f>
         <v>0.79826946811525334</v>
       </c>
       <c r="G7">
-        <f>'[1]Scenario Data RESULT'!M119</f>
         <v>1.2667400037875267</v>
       </c>
       <c r="H7">
-        <f>'[1]Scenario Data RESULT'!N119</f>
         <v>10.466221390480088</v>
       </c>
       <c r="I7">
-        <f>'[1]Scenario Data RESULT'!O119</f>
         <v>29.72873013108579</v>
       </c>
       <c r="J7">
-        <f>'[1]Scenario Data RESULT'!P119</f>
         <v>52.794378271090117</v>
       </c>
       <c r="K7">
-        <f>'[1]Scenario Data RESULT'!Q119</f>
         <v>70.148732608422463</v>
       </c>
       <c r="L7">
-        <f>'[1]Scenario Data RESULT'!R119</f>
         <v>79.698950461918969</v>
       </c>
     </row>
@@ -1015,6 +756,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2a4c2698-1ad2-4419-a691-7293414a1206" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100A82B7371D8E4D845AB2141135A9D5464" ma:contentTypeVersion="16" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="1f4e61a62ed1618cc7241a4daa6f726c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="68d613f7-1f7a-40bc-b91e-f6165451e0c5" xmlns:ns4="2a4c2698-1ad2-4419-a691-7293414a1206" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7e0a55ef2d24f9a9da60dc37867b7e5" ns3:_="" ns4:_="">
     <xsd:import namespace="68d613f7-1f7a-40bc-b91e-f6165451e0c5"/>
@@ -1255,24 +1013,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7282723-B5DC-4ABC-AC83-83B48DB73E95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a4c2698-1ad2-4419-a691-7293414a1206"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="68d613f7-1f7a-40bc-b91e-f6165451e0c5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2a4c2698-1ad2-4419-a691-7293414a1206" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{985643A5-C1FE-4C61-A4FE-E143DB3A4C58}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6A0148-7C39-41D8-B712-0565C59DB2FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1289,29 +1055,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{985643A5-C1FE-4C61-A4FE-E143DB3A4C58}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7282723-B5DC-4ABC-AC83-83B48DB73E95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2a4c2698-1ad2-4419-a691-7293414a1206"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="68d613f7-1f7a-40bc-b91e-f6165451e0c5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>